--- a/public/templates/machine-models_template.xlsx
+++ b/public/templates/machine-models_template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -397,82 +397,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>internalCode</v>
+      </c>
+      <c r="B1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" t="str">
+      <c r="C1" t="str">
         <v>manufacturer</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>brand</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>year</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>properties</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>MODEL_X1</v>
+      </c>
+      <c r="B2" t="str">
         <v>Model X1</v>
       </c>
-      <c r="B2" t="str">
+      <c r="C2" t="str">
         <v>Manufacturer A</v>
       </c>
-      <c r="C2" t="str">
+      <c r="D2" t="str">
         <v>Brand X</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>2023</v>
       </c>
-      <c r="E2" t="str">
+      <c r="F2" t="str">
         <v>{"power":"100kW","weight":"500kg"}</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
+        <v>MODEL_Y2</v>
+      </c>
+      <c r="B3" t="str">
         <v>Model Y2</v>
       </c>
-      <c r="B3" t="str">
+      <c r="C3" t="str">
         <v>Manufacturer B</v>
       </c>
-      <c r="C3" t="str">
+      <c r="D3" t="str">
         <v>Brand Y</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2022</v>
       </c>
-      <c r="E3" t="str">
+      <c r="F3" t="str">
         <v>{"power":"150kW","weight":"750kg"}</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
+        <v>MODEL_Z3</v>
+      </c>
+      <c r="B4" t="str">
         <v>Model Z3</v>
       </c>
-      <c r="B4" t="str">
+      <c r="C4" t="str">
         <v>Manufacturer C</v>
       </c>
-      <c r="C4" t="str">
+      <c r="D4" t="str">
         <v>Brand Z</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>2024</v>
       </c>
-      <c r="E4" t="str">
+      <c r="F4" t="str">
         <v>{"power":"200kW","weight":"1000kg"}</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
   </ignoredErrors>
 </worksheet>
 </file>